--- a/biology/Botanique/Square_Saint-Denis_d'Amiens/Square_Saint-Denis_d'Amiens.xlsx
+++ b/biology/Botanique/Square_Saint-Denis_d'Amiens/Square_Saint-Denis_d'Amiens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Saint-Denis_d%27Amiens</t>
+          <t>Square_Saint-Denis_d'Amiens</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Square Saint-Denis est un jardin public du centre-ville d'Amiens, principal espace vert du centre-ville, situé entre deux artères commerçantes, la rue de Noyon et la rue des Trois Cailloux, sur la place René Goblet.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Saint-Denis_d%27Amiens</t>
+          <t>Square_Saint-Denis_d'Amiens</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin public occupe l'emplacement du jardin du prieuré Saint-Denis que l'échevinage acheta au milieu du XIVe siècle pour en faire un cimetière. Le cimetière fut fermé en 1791 et ses derniers vestiges disparurent en 1840.
 Il fut aménagé en 1839 en même temps que la place par l'architecte François-Auguste Cheussey. En 1849, fut érigée au centre du square la statue de Du Cange par Théophile Caudron.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Saint-Denis_d%27Amiens</t>
+          <t>Square_Saint-Denis_d'Amiens</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est planté de marronniers, dont un âgé de 150 ans (Arbre remarquable), de plantes vivaces et de pelouse. Une fontaine complète l'ornementation.
 Il est bordé à l'ouest par le massif monument du Maréchal Leclerc de Jan et Joël Martel.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Saint-Denis_d%27Amiens</t>
+          <t>Square_Saint-Denis_d'Amiens</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
